--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-coverage.xlsx
@@ -545,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子。【詳細参照】</t>
+    <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子【詳細参照】</t>
   </si>
   <si>
     <t>A unique identifier assigned to this coverage.
